--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vip-Sctr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vip-Sctr.xlsx
@@ -525,16 +525,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1890113333333333</v>
+        <v>0.133054</v>
       </c>
       <c r="H2">
-        <v>0.567034</v>
+        <v>0.399162</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -561,10 +561,10 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.01062823328088889</v>
+        <v>0.007481715122666668</v>
       </c>
       <c r="R2">
-        <v>0.09565409952800001</v>
+        <v>0.067335436104</v>
       </c>
       <c r="S2">
         <v>1</v>
